--- a/tutorial_03/Database.xlsx
+++ b/tutorial_03/Database.xlsx
@@ -1,62 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Dev/exobrain_chatbot/tutorial_03/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12420" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="460" yWindow="480" windowWidth="27320" windowHeight="22480" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lecture" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Answer" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User_data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Seminar" sheetId="1" r:id="rId1"/>
+    <sheet name="Lecture" sheetId="2" r:id="rId2"/>
+    <sheet name="Response" sheetId="3" r:id="rId3"/>
+    <sheet name="User" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Answer!$A$1:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Response!$A$1:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
   <si>
     <t>&lt;인공지능 아카데미&gt;</t>
   </si>
@@ -405,331 +382,153 @@
 같습니다. </t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>MessageType</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>keyboard-type</t>
-  </si>
-  <si>
-    <t>buttons-value</t>
-  </si>
-  <si>
-    <t>msg_btn_label</t>
-  </si>
-  <si>
-    <t>msg_btn_url</t>
-  </si>
-  <si>
-    <t>img_url</t>
-  </si>
-  <si>
     <t>홈으로</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>원하시는 정보 버튼을 눌러주세요.</t>
   </si>
   <si>
-    <t>buttons</t>
-  </si>
-  <si>
-    <t>학원소개,수업소개,설명회,강사소개</t>
-  </si>
-  <si>
-    <t>강사소개</t>
-  </si>
-  <si>
-    <t>강사소개 부분입니다.</t>
+    <t>수업소개,오시는길,홈으로</t>
+  </si>
+  <si>
+    <t>사용자키</t>
+  </si>
+  <si>
+    <t>상태</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>Xd-FnJwm2rSA</t>
+  </si>
+  <si>
+    <t>이강훈</t>
+  </si>
+  <si>
+    <t>홈으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학원소개</t>
-  </si>
-  <si>
-    <t>우리는 인공지능 기술을 교육합니다.
-시대는 너무나 빠르게 변화하고 있고, 인공지능은 우리 삶에 현실로 들어오고 있습니다.
-인공지능 기술을 누구나 알고 이해하고 쉽게 쓸 수 있도록 우리는 인공지능 기술을 교육합니다.</t>
-  </si>
-  <si>
-    <t>수업소개,오시는길,홈으로</t>
-  </si>
-  <si>
-    <t>설명회</t>
-  </si>
-  <si>
-    <t>원하시는 설명회 주제를 눌러주세요.</t>
-  </si>
-  <si>
-    <t>buttons_url_Function</t>
-  </si>
-  <si>
-    <t>Python : 설명회 주제</t>
-  </si>
-  <si>
-    <t>웹에서 일정표 보기</t>
-  </si>
-  <si>
-    <t>https://www.ai-academy.ai/ai-b2c</t>
-  </si>
-  <si>
-    <t>수업소개</t>
-  </si>
-  <si>
-    <t>앗! 잠깐만요. 제가 사용자님이 어디에 관심있는지 얘기해주시면 맞춤형 강좌를 추천해드릴수있어요! 잘 모르겠으면 제가 질문을 드려도 될까요?  제 질문을 원하시면 &lt;맞춤형 질문&gt;이라고 얘기해주세요 대답을 원치 않으시면 &lt;모두보기&gt;라고 얘기해주세요</t>
-  </si>
-  <si>
-    <t>오시는길</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 한강대로 416
-서울스퀘어 위워크</t>
-  </si>
-  <si>
-    <t>buttons_url</t>
-  </si>
-  <si>
-    <t>웹에서 지도 보기</t>
-  </si>
-  <si>
-    <t>https://www.ai-academy.ai/contact</t>
-  </si>
-  <si>
-    <t>수업소개 - 맞춤형 질문</t>
-  </si>
-  <si>
-    <t>학생입니까? 직장인입니까?</t>
-  </si>
-  <si>
-    <t>학생,직장인</t>
-  </si>
-  <si>
-    <t>설명회 - 설명회 주제</t>
-  </si>
-  <si>
-    <t>text_Function</t>
-  </si>
-  <si>
-    <t>Python : 설명회 내용</t>
-  </si>
-  <si>
-    <t>상담 예약하기, 홈으로</t>
-  </si>
-  <si>
-    <t>수업소개 - 모두보기</t>
-  </si>
-  <si>
-    <t>모든 강좌정보 입니다. 관심있는 강좌명을 눌러주세요.</t>
-  </si>
-  <si>
-    <t>buttons_Function</t>
-  </si>
-  <si>
-    <t>Python : 강의 정보</t>
-  </si>
-  <si>
-    <t>수업소개 - 사용자 질문 분석</t>
-  </si>
-  <si>
-    <t>Python : Bayesian_Filter Function Call</t>
-  </si>
-  <si>
-    <t>맞춤형 질문 - 학생</t>
-  </si>
-  <si>
-    <t>대학생(혹은 대학원생) 입니까? 고등학생입니까?</t>
-  </si>
-  <si>
-    <t>대학생 이상,고등학생</t>
-  </si>
-  <si>
-    <t>사용자 질문 분석 - 수업 상세정보</t>
-  </si>
-  <si>
-    <t>Python : Detail_Info Function Call</t>
-  </si>
-  <si>
-    <t>상담 예약하기 ,홈으로</t>
-  </si>
-  <si>
-    <t>사용자 질문 분석 - 모든 수업 보기</t>
-  </si>
-  <si>
-    <t>맞춤형 질문 - 직장인</t>
-  </si>
-  <si>
-    <t>관련 업무를 하고 계십니까?</t>
-  </si>
-  <si>
-    <t>네,아니오</t>
-  </si>
-  <si>
-    <t>맞춤형 질문 - 학생 직장인</t>
-  </si>
-  <si>
-    <t>전공 지식이 있습니까?</t>
-  </si>
-  <si>
-    <t>개발 경험이 있으십니까?</t>
-  </si>
-  <si>
-    <t>수업소개 - 수업상세정보</t>
-  </si>
-  <si>
-    <t>상담 예약하기,홈으로</t>
-  </si>
-  <si>
-    <t>상담 예약하기</t>
-  </si>
-  <si>
-    <t>예약가능하신 장소와 날짜 시간을 입력해주세요</t>
-  </si>
-  <si>
-    <t>예약확인</t>
-  </si>
-  <si>
-    <t>Python : keyword_check Function Call</t>
-  </si>
-  <si>
-    <t>맞습니다,아니에요 수정할께요</t>
-  </si>
-  <si>
-    <t>마무리</t>
-  </si>
-  <si>
-    <t>여기까지 실행되냐?</t>
-  </si>
-  <si>
-    <t>User_key</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Question_Depth</t>
-  </si>
-  <si>
-    <t>cj0DIGuqgB91</t>
-  </si>
-  <si>
-    <t>직장인</t>
-  </si>
-  <si>
-    <t>네</t>
-  </si>
-  <si>
-    <t>아니오</t>
-  </si>
-  <si>
-    <t>Xd79Aukm2rSA</t>
-  </si>
-  <si>
-    <t>학생</t>
-  </si>
-  <si>
-    <t>대학생 이상</t>
-  </si>
-  <si>
-    <t>Xd-FnJwm2rSA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간표입니다.</t>
+  </si>
+  <si>
+    <t>우리는 인공지능 기술을 교육합니다.</t>
+  </si>
+  <si>
+    <t>http://twinkleballet.co.kr/data/designImages/BANNER1_1461112781_%EC%8B%9C%EA%B0%84%ED%91%9C.jpg</t>
+  </si>
+  <si>
+    <t>message_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹에서 시간표 보기@https://www.ai-academy.ai/ai-b2c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유롭게 대화를 해 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학원소개,시간표,대화하기,홈으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -766,113 +565,116 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="5"/>
+  <cellStyles count="5">
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="제목 1" xfId="1" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="2" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="3" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="4" builtinId="19"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1138,38 +940,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="19" width="22"/>
+    <col min="1" max="1" width="22" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="D2" s="16" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="16" t="s">
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1186,12 +993,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1208,7 +1019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1225,7 +1036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1242,12 +1053,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1264,7 +1079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1281,7 +1096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1306,40 +1121,43 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A9:E9"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="19" width="53.375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="19" width="16.25"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="19" width="14.875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="19" width="39.75"/>
-    <col customWidth="1" max="6" min="6" style="19" width="29.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="20" width="50.875"/>
-    <col customWidth="1" max="8" min="8" style="19" width="9"/>
+    <col min="1" max="1" width="53.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="50.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="24.75" r="1" s="19" spans="1:8" thickBot="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row customHeight="1" ht="21" r="2" s="19" spans="1:8" thickBot="1" thickTop="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1365,15 +1183,18 @@
         <v>48</v>
       </c>
     </row>
-    <row customHeight="1" ht="21" r="3" s="19" spans="1:8" thickBot="1" thickTop="1">
+    <row r="3" spans="1:8" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row customHeight="1" ht="149.25" r="4" s="19" spans="1:8" thickTop="1">
+      <c r="C3" s="20"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="149.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>51</v>
       </c>
@@ -1395,11 +1216,11 @@
       <c r="G4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="99.75" r="5" s="17" spans="1:8" thickBot="1">
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>58</v>
       </c>
@@ -1421,20 +1242,23 @@
       <c r="G5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="12">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.25" r="6" s="19" spans="1:8" thickBot="1">
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="33.75" r="7" s="19" spans="1:8" thickTop="1">
+      <c r="C6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="33.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>67</v>
       </c>
@@ -1456,11 +1280,11 @@
       <c r="G7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="8" s="19" spans="1:8" thickBot="1">
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>73</v>
       </c>
@@ -1482,20 +1306,23 @@
       <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="9" s="19" spans="1:8" thickBot="1">
+    <row r="9" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="6" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="10" s="17" spans="1:8">
+      <c r="C9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>80</v>
       </c>
@@ -1517,11 +1344,11 @@
       <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="12">
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="50.25" r="11" s="19" spans="1:8" thickBot="1">
+    <row r="11" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>86</v>
       </c>
@@ -1543,21 +1370,24 @@
       <c r="G11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="12" s="19" spans="1:8" thickBot="1">
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="9" t="n"/>
-      <c r="G12" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="49.5" r="13" s="19" spans="1:8">
+      <c r="C12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>92</v>
       </c>
@@ -1579,11 +1409,11 @@
       <c r="G13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="50.25" r="14" s="19" spans="1:8" thickBot="1">
+    <row r="14" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>96</v>
       </c>
@@ -1605,21 +1435,24 @@
       <c r="G14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.25" r="15" s="17" spans="1:8" thickBot="1">
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="9" t="n"/>
-      <c r="G15" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="50.25" r="16" s="19" spans="1:8" thickBot="1">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
@@ -1641,7 +1474,7 @@
       <c r="G16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>3</v>
       </c>
     </row>
@@ -1654,577 +1487,139 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="19" width="29.875"/>
-    <col customWidth="1" max="3" min="3" style="19" width="12.375"/>
-    <col customWidth="1" max="4" min="4" style="19" width="89"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="19" width="20.25"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="19" width="33"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="19" width="16.5"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="19" width="33.125"/>
+    <col min="1" max="1" width="29.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="62.33203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="2" s="11" spans="1:9">
-      <c r="A2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="3" s="11" spans="1:9">
-      <c r="A3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="4" s="11" spans="1:9">
-      <c r="A4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="5" s="11" spans="1:9">
-      <c r="A5" s="11" t="n">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="6" s="11" spans="1:9">
-      <c r="A6" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="49.5" r="7" s="11" spans="1:9">
-      <c r="A7" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="8" s="11" spans="1:9">
-      <c r="A8" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="9" s="11" spans="1:9">
-      <c r="A9" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="10" s="11" spans="1:9">
-      <c r="A10" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="11" s="11" spans="1:9">
-      <c r="A11" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="12" s="11" spans="1:9">
-      <c r="A12" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="13" s="11" spans="1:9">
-      <c r="A13" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="14" s="11" spans="1:9">
-      <c r="A14" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="15" s="11" spans="1:9">
-      <c r="A15" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="16" s="11" spans="1:9">
-      <c r="A16" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="17" s="11" spans="1:9">
-      <c r="A17" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="33" r="18" s="11" spans="1:9">
-      <c r="A18" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="19" s="11" spans="1:9">
-      <c r="A19" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="20" s="11" spans="1:9">
-      <c r="A20" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="24.95" r="21" s="11" spans="1:9">
-      <c r="A21" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9">
-    <sortState ref="A2:H19">
-      <sortCondition ref="A1:A8"/>
-    </sortState>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H5" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H7" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <autoFilter ref="A1:E4"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="19" width="14"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="19" width="11.625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="19" width="16"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="19" width="16"/>
+    <col min="1" max="1" width="14" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
+        <v>112</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/tutorial_03/Database.xlsx
+++ b/tutorial_03/Database.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Dev/exobrain_chatbot/tutorial_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Developer/exobrain_chatbot/tutorial_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="480" windowWidth="27320" windowHeight="22480" activeTab="2"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="27320" windowHeight="20540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="User" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Response!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Response!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>&lt;인공지능 아카데미&gt;</t>
   </si>
@@ -459,7 +459,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>학원소개,시간표,대화하기,홈으로</t>
+    <t>학원소개,시간표,대화하기,강사소개, 홈으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이재석, 이강훈 강사님 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재석, 이강훈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1495,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1539,42 +1551,59 @@
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B4" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E4"/>
+  <autoFilter ref="A1:E5"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tutorial_03/Database.xlsx
+++ b/tutorial_03/Database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Developer/exobrain_chatbot/tutorial_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruce/Developer/iitp_chatbot/exobrain_chatbot/tutorial_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="460" yWindow="460" windowWidth="27320" windowHeight="17540"/>
+    <workbookView xWindow="460" yWindow="460" windowWidth="21240" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Response" sheetId="3" r:id="rId1"/>
@@ -458,16 +458,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="3" customWidth="1"/>
-    <col min="3" max="4" width="62.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="36" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
